--- a/uploads/excel/Prueba10.xlsx
+++ b/uploads/excel/Prueba10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ecomas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F60FFA-FF69-45DD-A5C2-436AB26174A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C73D3F-0D33-4113-8D27-651B0B7D0676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{55A72A1F-5D96-40D5-8101-8FD384097781}"/>
   </bookViews>
@@ -87,20 +87,28 @@
     <t>Sociales</t>
   </si>
   <si>
-    <t>Ciclo</t>
-  </si>
-  <si>
-    <t>ANUAL</t>
+    <t>https://www.youtube.com/results?search_query=nextjs+y+electronjs+nextronjs</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,16 +131,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -448,12 +461,13 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
@@ -473,7 +487,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -492,8 +506,8 @@
       <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -512,8 +526,8 @@
       <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -532,8 +546,8 @@
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -552,8 +566,8 @@
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -572,8 +586,8 @@
       <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -592,8 +606,8 @@
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>21</v>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -612,8 +626,8 @@
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -632,8 +646,8 @@
       <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -652,8 +666,8 @@
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>21</v>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -672,12 +686,16 @@
       <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>21</v>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{5CE37DE7-062C-4ADB-9480-18593C82560A}"/>
+    <hyperlink ref="G3:G11" r:id="rId2" display="https://www.youtube.com/results?search_query=nextjs+y+electronjs+nextronjs" xr:uid="{1CFA36C9-3020-4F95-97C8-7737D4091013}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/uploads/excel/Prueba10.xlsx
+++ b/uploads/excel/Prueba10.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ecomas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CLASSROOM-BACKEND\classroom-backend\uploads\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C73D3F-0D33-4113-8D27-651B0B7D0676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3683AD80-B286-43CD-A9BF-41A223A4A235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{55A72A1F-5D96-40D5-8101-8FD384097781}"/>
+    <workbookView xWindow="150" yWindow="180" windowWidth="12180" windowHeight="13740" xr2:uid="{55A72A1F-5D96-40D5-8101-8FD384097781}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,37 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
-  <si>
-    <t>Aquilino Salcedo</t>
-  </si>
-  <si>
-    <t>Eloy Marti</t>
-  </si>
-  <si>
-    <t>Pascual Villanueva</t>
-  </si>
-  <si>
-    <t>Pedro Miguel Camara</t>
-  </si>
-  <si>
-    <t>Cristian Acevedo</t>
-  </si>
-  <si>
-    <t>Francisco Luis Souto</t>
-  </si>
-  <si>
-    <t>Marti Chaves</t>
-  </si>
-  <si>
-    <t>Luis Javier Postigo</t>
-  </si>
-  <si>
-    <t>Ivan Sevillano</t>
-  </si>
-  <si>
-    <t>Damian Montoro</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
   <si>
     <t>Nombres</t>
   </si>
@@ -75,22 +45,49 @@
     <t>Grupos</t>
   </si>
   <si>
+    <t>https://www.youtube.com/results?search_query=nextjs+y+electronjs+nextronjs</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Ciclo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquilino </t>
+  </si>
+  <si>
+    <t>Eloy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pascual </t>
+  </si>
+  <si>
+    <t>Pedro Miguel</t>
+  </si>
+  <si>
+    <t>Cristian Acev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Luis </t>
+  </si>
+  <si>
+    <t>Marti Cha</t>
+  </si>
+  <si>
+    <t>Luis Javier Pos</t>
+  </si>
+  <si>
+    <t>Ivan Sevil</t>
+  </si>
+  <si>
+    <t>Damian Mon</t>
+  </si>
+  <si>
     <t>Matecero</t>
   </si>
   <si>
-    <t>Madrugada</t>
-  </si>
-  <si>
-    <t>Ciencias</t>
-  </si>
-  <si>
-    <t>Sociales</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/results?search_query=nextjs+y+electronjs+nextronjs</t>
-  </si>
-  <si>
-    <t>Link</t>
+    <t>ANUAL</t>
   </si>
 </sst>
 </file>
@@ -458,225 +455,259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7568AC-B18F-4979-8ABF-D3E075188CCA}">
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="2" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="43.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>47416308</v>
+      </c>
+      <c r="E2">
+        <v>47416308</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>47416308</v>
+      </c>
+      <c r="E3">
+        <v>47416308</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>47416308</v>
+      </c>
+      <c r="E4">
+        <v>47416308</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>47416308</v>
+      </c>
+      <c r="E5">
+        <v>47416308</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>47416308</v>
+      </c>
+      <c r="E6">
+        <v>47416308</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>47416308</v>
+      </c>
+      <c r="E7">
+        <v>47416308</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="D8">
+        <v>47416308</v>
+      </c>
+      <c r="E8">
+        <v>47416308</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>47416308</v>
-      </c>
-      <c r="E2">
-        <v>47416308</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="D9">
+        <v>47416308</v>
+      </c>
+      <c r="E9">
+        <v>47416308</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>47416308</v>
-      </c>
-      <c r="E3">
-        <v>47416308</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="D10">
+        <v>47416308</v>
+      </c>
+      <c r="E10">
+        <v>47416308</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>47416308</v>
-      </c>
-      <c r="E4">
-        <v>47416308</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>47416308</v>
-      </c>
-      <c r="E5">
-        <v>47416308</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>47416308</v>
-      </c>
-      <c r="E6">
-        <v>47416308</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>47416308</v>
-      </c>
-      <c r="E7">
-        <v>47416308</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>47416308</v>
-      </c>
-      <c r="E8">
-        <v>47416308</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>47416308</v>
-      </c>
-      <c r="E9">
-        <v>47416308</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>47416308</v>
-      </c>
-      <c r="E10">
-        <v>47416308</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
       <c r="D11">
         <v>47416308</v>
       </c>
@@ -684,9 +715,12 @@
         <v>47416308</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>20</v>
       </c>
     </row>

--- a/uploads/excel/Prueba10.xlsx
+++ b/uploads/excel/Prueba10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CLASSROOM-BACKEND\classroom-backend\uploads\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3683AD80-B286-43CD-A9BF-41A223A4A235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B82C8C0-D985-4258-8DE9-3D1923CA5F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="180" windowWidth="12180" windowHeight="13740" xr2:uid="{55A72A1F-5D96-40D5-8101-8FD384097781}"/>
   </bookViews>
@@ -84,10 +84,10 @@
     <t>Damian Mon</t>
   </si>
   <si>
+    <t>ANUAL</t>
+  </si>
+  <si>
     <t>Matecero</t>
-  </si>
-  <si>
-    <t>ANUAL</t>
   </si>
 </sst>
 </file>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7568AC-B18F-4979-8ABF-D3E075188CCA}">
   <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,13 +496,13 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>47416308</v>
+        <v>47416307</v>
       </c>
       <c r="E2">
         <v>47416308</v>
@@ -514,18 +514,18 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3">
-        <v>47416308</v>
+        <v>47616308</v>
       </c>
       <c r="E3">
         <v>47416308</v>
@@ -537,18 +537,18 @@
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4">
-        <v>47416308</v>
+        <v>47216308</v>
       </c>
       <c r="E4">
         <v>47416308</v>
@@ -560,18 +560,18 @@
         <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>47416308</v>
+        <v>47412308</v>
       </c>
       <c r="E5">
         <v>47416308</v>
@@ -583,18 +583,18 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6">
-        <v>47416308</v>
+        <v>47416908</v>
       </c>
       <c r="E6">
         <v>47416308</v>
@@ -606,18 +606,18 @@
         <v>6</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7">
-        <v>47416308</v>
+        <v>47416300</v>
       </c>
       <c r="E7">
         <v>47416308</v>
@@ -629,18 +629,18 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8">
-        <v>47416308</v>
+        <v>47516308</v>
       </c>
       <c r="E8">
         <v>47416308</v>
@@ -652,18 +652,18 @@
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9">
-        <v>47416308</v>
+        <v>47486308</v>
       </c>
       <c r="E9">
         <v>47416308</v>
@@ -675,18 +675,18 @@
         <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10">
-        <v>47416308</v>
+        <v>47417308</v>
       </c>
       <c r="E10">
         <v>47416308</v>
@@ -698,18 +698,18 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11">
-        <v>47416308</v>
+        <v>47413308</v>
       </c>
       <c r="E11">
         <v>47416308</v>
@@ -721,7 +721,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/excel/Prueba10.xlsx
+++ b/uploads/excel/Prueba10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CLASSROOM-BACKEND\classroom-backend\uploads\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B82C8C0-D985-4258-8DE9-3D1923CA5F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6E2B8A-FF0B-4EFB-B16A-834D7F998346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="180" windowWidth="12180" windowHeight="13740" xr2:uid="{55A72A1F-5D96-40D5-8101-8FD384097781}"/>
+    <workbookView xWindow="5100" yWindow="720" windowWidth="19665" windowHeight="13740" xr2:uid="{55A72A1F-5D96-40D5-8101-8FD384097781}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
   <si>
     <t>Nombres</t>
   </si>
@@ -54,40 +54,70 @@
     <t>Ciclo</t>
   </si>
   <si>
-    <t xml:space="preserve">Aquilino </t>
-  </si>
-  <si>
-    <t>Eloy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pascual </t>
-  </si>
-  <si>
-    <t>Pedro Miguel</t>
-  </si>
-  <si>
-    <t>Cristian Acev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Luis </t>
-  </si>
-  <si>
-    <t>Marti Cha</t>
-  </si>
-  <si>
-    <t>Luis Javier Pos</t>
-  </si>
-  <si>
-    <t>Ivan Sevil</t>
-  </si>
-  <si>
-    <t>Damian Mon</t>
-  </si>
-  <si>
-    <t>ANUAL</t>
-  </si>
-  <si>
-    <t>Matecero</t>
+    <t>Aquilino robert</t>
+  </si>
+  <si>
+    <t>Eloy ticona</t>
+  </si>
+  <si>
+    <t>Pascual  perez</t>
+  </si>
+  <si>
+    <t>Pedro Miguel  lopez</t>
+  </si>
+  <si>
+    <t>Cristian Acev tipo</t>
+  </si>
+  <si>
+    <t>Francisco Luis  juarez</t>
+  </si>
+  <si>
+    <t>Marti Cha  perez</t>
+  </si>
+  <si>
+    <t>Luis Javier Pos lipo</t>
+  </si>
+  <si>
+    <t>Ivan Sevil  tica</t>
+  </si>
+  <si>
+    <t>Damian Mon  morales</t>
+  </si>
+  <si>
+    <t>ab10</t>
+  </si>
+  <si>
+    <t>ab20</t>
+  </si>
+  <si>
+    <t>ab30</t>
+  </si>
+  <si>
+    <t>ab40</t>
+  </si>
+  <si>
+    <t>ab50</t>
+  </si>
+  <si>
+    <t>ab60</t>
+  </si>
+  <si>
+    <t>ab70</t>
+  </si>
+  <si>
+    <t>ab80</t>
+  </si>
+  <si>
+    <t>ab90</t>
+  </si>
+  <si>
+    <t>ab100</t>
+  </si>
+  <si>
+    <t>VERANO</t>
+  </si>
+  <si>
+    <t>Ciencias</t>
   </si>
 </sst>
 </file>
@@ -458,7 +488,7 @@
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,13 +526,13 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>47416307</v>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E2">
         <v>47416308</v>
@@ -514,18 +544,18 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>47616308</v>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E3">
         <v>47416308</v>
@@ -537,18 +567,18 @@
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
-        <v>47216308</v>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E4">
         <v>47416308</v>
@@ -560,18 +590,18 @@
         <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>47412308</v>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E5">
         <v>47416308</v>
@@ -583,18 +613,18 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
-        <v>47416908</v>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E6">
         <v>47416308</v>
@@ -606,18 +636,18 @@
         <v>6</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7">
-        <v>47416300</v>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E7">
         <v>47416308</v>
@@ -629,18 +659,18 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8">
-        <v>47516308</v>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E8">
         <v>47416308</v>
@@ -652,18 +682,18 @@
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9">
-        <v>47486308</v>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E9">
         <v>47416308</v>
@@ -675,18 +705,18 @@
         <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10">
-        <v>47417308</v>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E10">
         <v>47416308</v>
@@ -698,18 +728,18 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11">
-        <v>47413308</v>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E11">
         <v>47416308</v>
@@ -721,7 +751,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/excel/Prueba10.xlsx
+++ b/uploads/excel/Prueba10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CLASSROOM-BACKEND\classroom-backend\uploads\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6E2B8A-FF0B-4EFB-B16A-834D7F998346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85E7511-2D32-4FED-A062-992D1DD15C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="720" windowWidth="19665" windowHeight="13740" xr2:uid="{55A72A1F-5D96-40D5-8101-8FD384097781}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55A72A1F-5D96-40D5-8101-8FD384097781}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Grupos</t>
   </si>
   <si>
-    <t>https://www.youtube.com/results?search_query=nextjs+y+electronjs+nextronjs</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Ciencias</t>
+  </si>
+  <si>
+    <t>https://padlet.com/</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,21 +518,21 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>47416308</v>
@@ -541,21 +541,21 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>47416308</v>
@@ -564,21 +564,21 @@
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>47416308</v>
@@ -587,21 +587,21 @@
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>47416308</v>
@@ -610,21 +610,21 @@
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>47416308</v>
@@ -633,21 +633,21 @@
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>47416308</v>
@@ -656,21 +656,21 @@
         <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>47416308</v>
@@ -679,21 +679,21 @@
         <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>47416308</v>
@@ -702,21 +702,21 @@
         <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>47416308</v>
@@ -725,21 +725,21 @@
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>47416308</v>
@@ -748,16 +748,16 @@
         <v>4</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{5CE37DE7-062C-4ADB-9480-18593C82560A}"/>
-    <hyperlink ref="G3:G11" r:id="rId2" display="https://www.youtube.com/results?search_query=nextjs+y+electronjs+nextronjs" xr:uid="{1CFA36C9-3020-4F95-97C8-7737D4091013}"/>
+    <hyperlink ref="G3:G11" r:id="rId2" display="https://padlet.com/" xr:uid="{D3AC3E50-19DF-4B9E-934B-4989F73E2F89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/uploads/excel/Prueba10.xlsx
+++ b/uploads/excel/Prueba10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CLASSROOM-BACKEND\classroom-backend\uploads\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ecomas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85E7511-2D32-4FED-A062-992D1DD15C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C3C205-6BEC-48FD-81C8-4DA4AE313A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55A72A1F-5D96-40D5-8101-8FD384097781}"/>
+    <workbookView xWindow="8820" yWindow="180" windowWidth="15675" windowHeight="15795" xr2:uid="{55A72A1F-5D96-40D5-8101-8FD384097781}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -114,10 +114,10 @@
     <t>VERANO</t>
   </si>
   <si>
-    <t>Ciencias</t>
-  </si>
-  <si>
     <t>https://padlet.com/</t>
+  </si>
+  <si>
+    <t>Mensual</t>
   </si>
 </sst>
 </file>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7568AC-B18F-4979-8ABF-D3E075188CCA}">
   <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +526,7 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>28</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>28</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>28</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -610,7 +610,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>28</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -633,7 +633,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>28</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -656,7 +656,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>28</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -679,7 +679,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>28</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -702,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>28</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -725,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>28</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -748,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>28</v>

--- a/uploads/excel/Prueba10.xlsx
+++ b/uploads/excel/Prueba10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ecomas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CLASSROOM-BACKEND\classroom-backend\uploads\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C3C205-6BEC-48FD-81C8-4DA4AE313A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F75AE45-BE1E-4145-A998-79DBE3DCFAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="180" windowWidth="15675" windowHeight="15795" xr2:uid="{55A72A1F-5D96-40D5-8101-8FD384097781}"/>
+    <workbookView xWindow="5100" yWindow="720" windowWidth="19665" windowHeight="13740" xr2:uid="{55A72A1F-5D96-40D5-8101-8FD384097781}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>Nombres</t>
   </si>
@@ -118,13 +118,16 @@
   </si>
   <si>
     <t>Mensual</t>
+  </si>
+  <si>
+    <t>Fecha Inicio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +139,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,12 +171,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -485,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7568AC-B18F-4979-8ABF-D3E075188CCA}">
-  <dimension ref="B1:H11"/>
+  <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +513,7 @@
     <col min="8" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -518,13 +530,17 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>30</v>
       </c>
@@ -540,14 +556,18 @@
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="3">
+        <v>45643</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>30</v>
       </c>
@@ -563,14 +583,18 @@
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G3" s="3">
+        <v>45643</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>30</v>
       </c>
@@ -586,14 +610,18 @@
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G4" s="3">
+        <v>45643</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -609,14 +637,18 @@
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="3">
+        <v>45643</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -632,14 +664,18 @@
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="3">
+        <v>45643</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -655,14 +691,18 @@
       <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="3">
+        <v>45643</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>30</v>
       </c>
@@ -678,14 +718,18 @@
       <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="3">
+        <v>45643</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -701,14 +745,18 @@
       <c r="F9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="3">
+        <v>45643</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>30</v>
       </c>
@@ -724,14 +772,18 @@
       <c r="F10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="3">
+        <v>45643</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -747,17 +799,22 @@
       <c r="F11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="G11" s="3">
+        <v>45643</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{5CE37DE7-062C-4ADB-9480-18593C82560A}"/>
-    <hyperlink ref="G3:G11" r:id="rId2" display="https://padlet.com/" xr:uid="{D3AC3E50-19DF-4B9E-934B-4989F73E2F89}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{69591265-F38D-488F-A96E-87472A28A344}"/>
+    <hyperlink ref="H3:H11" r:id="rId2" display="https://padlet.com/" xr:uid="{F8C49A7F-5FED-48EF-8A87-5F87EB59AC78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/uploads/excel/Prueba10.xlsx
+++ b/uploads/excel/Prueba10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CLASSROOM-BACKEND\classroom-backend\uploads\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F75AE45-BE1E-4145-A998-79DBE3DCFAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0016FAC-F8E4-42CA-A493-C471662838E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5100" yWindow="720" windowWidth="19665" windowHeight="13740" xr2:uid="{55A72A1F-5D96-40D5-8101-8FD384097781}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
   <si>
     <t>Nombres</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Fecha Inicio</t>
+  </si>
+  <si>
+    <t>45-12-2024</t>
   </si>
 </sst>
 </file>
@@ -179,7 +182,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -499,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7568AC-B18F-4979-8ABF-D3E075188CCA}">
   <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,8 +512,9 @@
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="43.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
@@ -556,8 +560,8 @@
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3">
-        <v>45643</v>
+      <c r="G2" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>29</v>
@@ -583,8 +587,8 @@
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3">
-        <v>45643</v>
+      <c r="G3" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>29</v>
@@ -610,8 +614,8 @@
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="3">
-        <v>45643</v>
+      <c r="G4" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>29</v>
@@ -637,8 +641,8 @@
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="3">
-        <v>45643</v>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>29</v>
@@ -664,8 +668,8 @@
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="3">
-        <v>45643</v>
+      <c r="G6" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>29</v>
@@ -691,8 +695,8 @@
       <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="3">
-        <v>45643</v>
+      <c r="G7" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>29</v>
@@ -718,8 +722,8 @@
       <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3">
-        <v>45643</v>
+      <c r="G8" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>29</v>
@@ -745,8 +749,8 @@
       <c r="F9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>45643</v>
+      <c r="G9" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>29</v>
@@ -772,8 +776,8 @@
       <c r="F10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>45643</v>
+      <c r="G10" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>29</v>
@@ -799,8 +803,8 @@
       <c r="F11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="3">
-        <v>45643</v>
+      <c r="G11" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>29</v>

--- a/uploads/excel/Prueba10.xlsx
+++ b/uploads/excel/Prueba10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CLASSROOM-BACKEND\classroom-backend\uploads\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ecomas\Desktop\CLASSROOM\classroom-backend\uploads\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0016FAC-F8E4-42CA-A493-C471662838E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D0CBC2-F6C2-4541-841B-B3E403C28653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="720" windowWidth="19665" windowHeight="13740" xr2:uid="{55A72A1F-5D96-40D5-8101-8FD384097781}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{55A72A1F-5D96-40D5-8101-8FD384097781}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>Nombres</t>
   </si>
@@ -114,16 +114,43 @@
     <t>VERANO</t>
   </si>
   <si>
-    <t>https://padlet.com/</t>
-  </si>
-  <si>
-    <t>Mensual</t>
-  </si>
-  <si>
     <t>Fecha Inicio</t>
   </si>
   <si>
     <t>45-12-2024</t>
+  </si>
+  <si>
+    <t>https://padlet.com/cokitonov/grupo-letras-3-4-noches-noviembredfsdfsdfsdf-z1yi90e9q7x4bzq6</t>
+  </si>
+  <si>
+    <t>https://padlet.com/cokitonov/grupo-letras-3-4-noches-noviembredfsdfsdfsdf-z1yi90e9q7x4bzq7</t>
+  </si>
+  <si>
+    <t>https://padlet.com/cokitonov/grupo-letras-3-4-noches-noviembredfsdfsdfsdf-z1yi90e9q7x4bzq8</t>
+  </si>
+  <si>
+    <t>https://padlet.com/cokitonov/grupo-letras-3-4-noches-noviembredfsdfsdfsdf-z1yi90e9q7x4bzq9</t>
+  </si>
+  <si>
+    <t>https://padlet.com/cokitonov/grupo-letras-3-4-noches-noviembredfsdfsdfsdf-z1yi90e9q7x4bzq10</t>
+  </si>
+  <si>
+    <t>https://padlet.com/cokitonov/grupo-letras-3-4-noches-noviembredfsdfsdfsdf-z1yi90e9q7x4bzq11</t>
+  </si>
+  <si>
+    <t>https://padlet.com/cokitonov/grupo-letras-3-4-noches-noviembredfsdfsdfsdf-z1yi90e9q7x4bzq12</t>
+  </si>
+  <si>
+    <t>https://padlet.com/cokitonov/grupo-letras-3-4-noches-noviembredfsdfsdfsdf-z1yi90e9q7x4bzq13</t>
+  </si>
+  <si>
+    <t>https://padlet.com/cokitonov/grupo-letras-3-4-noches-noviembredfsdfsdfsdf-z1yi90e9q7x4bzq14</t>
+  </si>
+  <si>
+    <t>https://padlet.com/cokitonov/grupo-letras-3-4-noches-noviembredfsdfsdfsdf-z1yi90e9q7x4bzq15</t>
+  </si>
+  <si>
+    <t>Ciencias</t>
   </si>
 </sst>
 </file>
@@ -503,7 +530,7 @@
   <dimension ref="B1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +540,7 @@
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="34.85546875" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -534,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -546,7 +573,7 @@
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,10 +588,10 @@
         <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>28</v>
@@ -573,7 +600,7 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -588,10 +615,10 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>28</v>
@@ -600,7 +627,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -615,10 +642,10 @@
         <v>4</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>28</v>
@@ -627,7 +654,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -642,10 +669,10 @@
         <v>4</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>28</v>
@@ -654,7 +681,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -669,10 +696,10 @@
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>28</v>
@@ -681,7 +708,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -696,10 +723,10 @@
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>28</v>
@@ -708,7 +735,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -723,10 +750,10 @@
         <v>4</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>28</v>
@@ -735,7 +762,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -750,10 +777,10 @@
         <v>4</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>28</v>
@@ -762,7 +789,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -777,10 +804,10 @@
         <v>4</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>28</v>
@@ -789,7 +816,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -804,10 +831,10 @@
         <v>4</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>28</v>
@@ -818,7 +845,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{69591265-F38D-488F-A96E-87472A28A344}"/>
-    <hyperlink ref="H3:H11" r:id="rId2" display="https://padlet.com/" xr:uid="{F8C49A7F-5FED-48EF-8A87-5F87EB59AC78}"/>
+    <hyperlink ref="H3:H11" r:id="rId2" display="https://padlet.com/cokitonov/grupo-letras-3-4-noches-noviembredfsdfsdfsdf-z1yi90e9q7x4bzq6" xr:uid="{E0BDD988-7A06-406D-9A50-7ACD8FA18068}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/uploads/excel/Prueba10.xlsx
+++ b/uploads/excel/Prueba10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ecomas\Desktop\CLASSROOM\classroom-backend\uploads\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D0CBC2-F6C2-4541-841B-B3E403C28653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E6332E-3EAB-410A-A523-B4CCBF4167D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{55A72A1F-5D96-40D5-8101-8FD384097781}"/>
   </bookViews>
@@ -84,36 +84,6 @@
     <t>ab10</t>
   </si>
   <si>
-    <t>ab20</t>
-  </si>
-  <si>
-    <t>ab30</t>
-  </si>
-  <si>
-    <t>ab40</t>
-  </si>
-  <si>
-    <t>ab50</t>
-  </si>
-  <si>
-    <t>ab60</t>
-  </si>
-  <si>
-    <t>ab70</t>
-  </si>
-  <si>
-    <t>ab80</t>
-  </si>
-  <si>
-    <t>ab90</t>
-  </si>
-  <si>
-    <t>ab100</t>
-  </si>
-  <si>
-    <t>VERANO</t>
-  </si>
-  <si>
     <t>Fecha Inicio</t>
   </si>
   <si>
@@ -150,7 +120,37 @@
     <t>https://padlet.com/cokitonov/grupo-letras-3-4-noches-noviembredfsdfsdfsdf-z1yi90e9q7x4bzq15</t>
   </si>
   <si>
-    <t>Ciencias</t>
+    <t>Matecero</t>
+  </si>
+  <si>
+    <t>ab102</t>
+  </si>
+  <si>
+    <t>ab103</t>
+  </si>
+  <si>
+    <t>ab104</t>
+  </si>
+  <si>
+    <t>ab105</t>
+  </si>
+  <si>
+    <t>ab106</t>
+  </si>
+  <si>
+    <t>ab107</t>
+  </si>
+  <si>
+    <t>ab108</t>
+  </si>
+  <si>
+    <t>ab109</t>
+  </si>
+  <si>
+    <t>ab110</t>
+  </si>
+  <si>
+    <t>ANUAL</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="B1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -588,25 +588,25 @@
         <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>47416308</v>
@@ -615,25 +615,25 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>47416308</v>
@@ -642,25 +642,25 @@
         <v>4</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>47416308</v>
@@ -669,25 +669,25 @@
         <v>4</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>47416308</v>
@@ -696,25 +696,25 @@
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>47416308</v>
@@ -723,25 +723,25 @@
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>47416308</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>47416308</v>
@@ -777,25 +777,25 @@
         <v>4</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>47416308</v>
@@ -804,25 +804,25 @@
         <v>4</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>47416308</v>
@@ -831,13 +831,13 @@
         <v>4</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J11" s="1"/>
     </row>
